--- a/epigraphhub/data/brasil/sinan/metadata/COQU.xlsx
+++ b/epigraphhub/data/brasil/sinan/metadata/COQU.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="260">
   <si>
     <t xml:space="preserve">Nome do campo</t>
   </si>
@@ -43,8 +43,7 @@
     <t xml:space="preserve">DBF</t>
   </si>
   <si>
-    <t xml:space="preserve">31. Data da
-investigação</t>
+    <t xml:space="preserve">31. Data da investigação</t>
   </si>
   <si>
     <t xml:space="preserve">dt_investigacao</t>
@@ -131,8 +130,7 @@
     <t xml:space="preserve">ID_OCUPA_N</t>
   </si>
   <si>
-    <t xml:space="preserve">33. A Unidade
-Notificante É Sentinela?</t>
+    <t xml:space="preserve">33. A Unidade Notificante É Sentinela?</t>
   </si>
   <si>
     <t xml:space="preserve">st_unidade_sentinela</t>
@@ -197,12 +195,7 @@
     <t xml:space="preserve">ANT_SENTIN</t>
   </si>
   <si>
-    <t xml:space="preserve">34. Contato Com Caso
-Suspeito Ou
-Confirmado De
-Coqueluche (Até 14
-Dias Antes Do Início
-Dos Sinais E Sintomas)</t>
+    <t xml:space="preserve">34. Contato Com Caso Suspeito Ou Confirmado De Coqueluche (Até 14 Dias Antes Do Início Dos Sinais E Sintomas)</t>
   </si>
   <si>
     <t xml:space="preserve">tp_contato_coqueluche</t>
@@ -261,8 +254,7 @@
     <t xml:space="preserve">FC_CONTATO</t>
   </si>
   <si>
-    <t xml:space="preserve">34. Se Outro Contato,
-Especificar</t>
+    <t xml:space="preserve">34. Se Outro Contato, Especificar</t>
   </si>
   <si>
     <t xml:space="preserve">ds_contato_coqueluche_outro</t>
@@ -302,12 +294,10 @@
     <t xml:space="preserve">NM_CONTATO</t>
   </si>
   <si>
-    <t xml:space="preserve">36. Endereço do
-Contato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">co_endereco_contato ,
-no_endereco_contato</t>
+    <t xml:space="preserve">36. Endereço do Contato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">co_endereco_contato no_endereco_contato</t>
   </si>
   <si>
     <t xml:space="preserve">varchar(60)</t>
@@ -320,9 +310,7 @@
     <t xml:space="preserve">END_CONTAT</t>
   </si>
   <si>
-    <t xml:space="preserve">37. N º de doses de
-vacina tríplice (dpt) ou
-tetravalente (dtp + hib)</t>
+    <t xml:space="preserve">37. N º de doses de vacina tríplice (dpt) ou tetravalente (dtp + hib)</t>
   </si>
   <si>
     <t xml:space="preserve">tp_dose_vacina</t>
@@ -423,8 +411,7 @@
     <t xml:space="preserve">DT_ULT_DOS</t>
   </si>
   <si>
-    <t xml:space="preserve">39. Data do Inicio da
-Tosse</t>
+    <t xml:space="preserve">39. Data do Inicio da Tosse</t>
   </si>
   <si>
     <t xml:space="preserve">dt_inicio_tosse</t>
@@ -514,8 +501,7 @@
     <t xml:space="preserve">DT_CATARRA</t>
   </si>
   <si>
-    <t xml:space="preserve">40. Sinais e Sintomas
-(Tosse)</t>
+    <t xml:space="preserve">40. Sinais e Sintomas (Tosse)</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_tosse</t>
@@ -528,8 +514,7 @@
     <t xml:space="preserve">CS_TOSSE_E</t>
   </si>
   <si>
-    <t xml:space="preserve">40. Sinais e Sintomas
-(Tosse Paroxística)</t>
+    <t xml:space="preserve">40. Sinais e Sintomas (Tosse Paroxística)</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_tosse_paroxistica</t>
@@ -552,10 +537,7 @@
     <t xml:space="preserve">CS_TOSSE_P</t>
   </si>
   <si>
-    <t xml:space="preserve">40. Sinais e Sintomas
-Respiração Ruidosa Ao
-Final Da Crise De Tosse
-(Guincho)</t>
+    <t xml:space="preserve">40. Sinais e Sintomas Respiração Ruidosa Ao Final Da Crise De Tosse (Guincho)</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_respiracao</t>
@@ -570,8 +552,7 @@
     <t xml:space="preserve">CS_CRISE</t>
   </si>
   <si>
-    <t xml:space="preserve">40. Sinais e Sintomas
-(Cianose)</t>
+    <t xml:space="preserve">40. Sinais e Sintomas (Cianose)</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_cianose</t>
@@ -584,8 +565,7 @@
     <t xml:space="preserve">CS_CIANOSE</t>
   </si>
   <si>
-    <t xml:space="preserve">40. SinaiseE Sintomas
-(Vômitos)</t>
+    <t xml:space="preserve">40. SinaiseE Sintomas (Vômitos)</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_vomito</t>
@@ -599,8 +579,7 @@
     <t xml:space="preserve">CS_VOMITOS</t>
   </si>
   <si>
-    <t xml:space="preserve">40. Sinais e Sintomas
-(Apnéia)</t>
+    <t xml:space="preserve">40. Sinais e Sintomas (Apnéia)</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_apneia</t>
@@ -613,40 +592,7 @@
     <t xml:space="preserve">CS_APNEIA</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">40. Sinais e Sintomas
-(Temperatura &lt; 38</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="6.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">º</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">c)</t>
-    </r>
+    <t xml:space="preserve">40. Sinais e Sintomas (Temperatura &lt; 38ºc)</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_temperatura_menor_38</t>
@@ -689,41 +635,7 @@
     <t xml:space="preserve">CS_TEMP37</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">40. Sinais e Sintomas
-(Temperatura &gt; Ou =
-38</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="6.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">º</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">c)</t>
-    </r>
+    <t xml:space="preserve">40. Sinais e Sintomas (Temperatura &gt; Ou = 38ºc)</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_temperatura_maior_38</t>
@@ -766,8 +678,7 @@
     <t xml:space="preserve">CS_TEMP_38</t>
   </si>
   <si>
-    <t xml:space="preserve">40. Sinais e Sintomas
-(Outros)</t>
+    <t xml:space="preserve">40. Sinais e Sintomas (Outros)</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_outro</t>
@@ -782,8 +693,7 @@
     <t xml:space="preserve">CS_OUT_SIN</t>
   </si>
   <si>
-    <t xml:space="preserve">40. Outros Sinais e
-Sintomas (Especificar)</t>
+    <t xml:space="preserve">40. Outros Sinais e Sintomas (Especificar)</t>
   </si>
   <si>
     <t xml:space="preserve">ds_sinais_outro</t>
@@ -802,9 +712,7 @@
     <t xml:space="preserve">NM_OUT_SIN</t>
   </si>
   <si>
-    <t xml:space="preserve">41. Complicações
-(penumonia ou
-broncopneumonia)</t>
+    <t xml:space="preserve">41. Complicações (penumonia ou broncopneumonia)</t>
   </si>
   <si>
     <t xml:space="preserve">st_complicacao_pneumonia</t>
@@ -823,9 +731,7 @@
     <t xml:space="preserve">CS_PNEUMON</t>
   </si>
   <si>
-    <t xml:space="preserve">41. Complicações
-(Encefalopatia
-(Convulsões))</t>
+    <t xml:space="preserve">41. Complicações (Encefalopatia (Convulsões))</t>
   </si>
   <si>
     <t xml:space="preserve">st_complicacao_encefalopatia</t>
@@ -839,8 +745,7 @@
     <t xml:space="preserve">CS_ENCEFAL</t>
   </si>
   <si>
-    <t xml:space="preserve">41. Complicações
-(Desidratação)</t>
+    <t xml:space="preserve">41. Complicações (Desidratação)</t>
   </si>
   <si>
     <t xml:space="preserve">st_complicacao_desidratacao</t>
@@ -853,8 +758,7 @@
     <t xml:space="preserve">CS_DESITRA</t>
   </si>
   <si>
-    <t xml:space="preserve">41. Complicações
-(Otite)</t>
+    <t xml:space="preserve">41. Complicações (Otite)</t>
   </si>
   <si>
     <t xml:space="preserve">st_complicacao_otite</t>
@@ -867,8 +771,7 @@
     <t xml:space="preserve">CS_OTITE</t>
   </si>
   <si>
-    <t xml:space="preserve">41. Complicações
-(Desnutrição)</t>
+    <t xml:space="preserve">41. Complicações (Desnutrição)</t>
   </si>
   <si>
     <t xml:space="preserve">st_complicacao_desnutricao</t>
@@ -881,8 +784,7 @@
     <t xml:space="preserve">CS_DESNUTR</t>
   </si>
   <si>
-    <t xml:space="preserve">41. Complicações
-(Outras)</t>
+    <t xml:space="preserve">41. Complicações (Outras)</t>
   </si>
   <si>
     <t xml:space="preserve">st_complicacao_outro</t>
@@ -897,9 +799,7 @@
     <t xml:space="preserve">CS_OUT_COM</t>
   </si>
   <si>
-    <t xml:space="preserve">41. Outras
-Complicações
-(Especificar)</t>
+    <t xml:space="preserve">41. Outras Complicações (Especificar)</t>
   </si>
   <si>
     <t xml:space="preserve">ds_complicacao_outro</t>
@@ -918,8 +818,7 @@
     <t xml:space="preserve">NM_OUT_COM</t>
   </si>
   <si>
-    <t xml:space="preserve">42. Ocorreu
-Hospitalização</t>
+    <t xml:space="preserve">42. Ocorreu Hospitalização</t>
   </si>
   <si>
     <t xml:space="preserve">st_ocorreu_hospitalizacao</t>
@@ -1011,8 +910,7 @@
     <t xml:space="preserve">COD_UF_HOS</t>
   </si>
   <si>
-    <t xml:space="preserve">45. Município Do
-Hospital</t>
+    <t xml:space="preserve">45. Município Do Hospital</t>
   </si>
   <si>
     <t xml:space="preserve">co_municipio_hospital</t>
@@ -1098,8 +996,7 @@
     <t xml:space="preserve">CS_ANTIBIO</t>
   </si>
   <si>
-    <t xml:space="preserve">48. Data De Adm. Do
-Antibiótico</t>
+    <t xml:space="preserve">48. Data De Adm. Do Antibiótico</t>
   </si>
   <si>
     <t xml:space="preserve">dt_antibiotico</t>
@@ -1141,8 +1038,7 @@
     <t xml:space="preserve">DT_ADM_ANT</t>
   </si>
   <si>
-    <t xml:space="preserve">49. Coleta De Material
-Da Nasofaringe</t>
+    <t xml:space="preserve">49. Coleta De Material Da Nasofaringe</t>
   </si>
   <si>
     <t xml:space="preserve">st_coleta_material</t>
@@ -1189,8 +1085,7 @@
     <t xml:space="preserve">CS_COLETA</t>
   </si>
   <si>
-    <t xml:space="preserve">50. Data Da Coleta Do
-Material</t>
+    <t xml:space="preserve">50. Data Da Coleta Do Material</t>
   </si>
   <si>
     <t xml:space="preserve">dt_coleta</t>
@@ -1232,8 +1127,7 @@
     <t xml:space="preserve">DT_COLETA</t>
   </si>
   <si>
-    <t xml:space="preserve">51. Resultado Da
-Cultura</t>
+    <t xml:space="preserve">51. Resultado Da Cultura</t>
   </si>
   <si>
     <t xml:space="preserve">tp_resultado_cultura</t>
@@ -1300,9 +1194,7 @@
     <t xml:space="preserve">CS_CULTURA</t>
   </si>
   <si>
-    <t xml:space="preserve">52. Realizada
-Identificação Dos
-Comunicantes Íntimos</t>
+    <t xml:space="preserve">52. Realizada Identificação Dos Comunicantes Íntimos</t>
   </si>
   <si>
     <t xml:space="preserve">st_identificacao_comunicante</t>
@@ -1438,9 +1330,7 @@
     <t xml:space="preserve">MED_QUAN_C</t>
   </si>
   <si>
-    <t xml:space="preserve">54. Quantos Casos
-Secundários Foram
-Confirmados Entre Os Comunicantes.</t>
+    <t xml:space="preserve">54. Quantos Casos Secundários Foram Confirmados Entre Os Comunicantes.</t>
   </si>
   <si>
     <t xml:space="preserve">tp_caso_confirmado</t>
@@ -1485,13 +1375,10 @@
     <t xml:space="preserve">MED_CASO_S</t>
   </si>
   <si>
-    <t xml:space="preserve">55. Realizada Coleta de
-Material da Nasofaringe
-dos Comunicantes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">st_coleta_material_comunican
-te</t>
+    <t xml:space="preserve">55. Realizada Coleta de Material da Nasofaringe dos Comunicantes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">st_coleta_material_comunicante</t>
   </si>
   <si>
     <t xml:space="preserve">Informa se foi realizada
@@ -1516,8 +1403,7 @@
     <t xml:space="preserve">COLET_COMU</t>
   </si>
   <si>
-    <t xml:space="preserve">56. Se Sim, em
-Quantos?</t>
+    <t xml:space="preserve">56. Se Sim, em Quantos?</t>
   </si>
   <si>
     <t xml:space="preserve">qt_comunicante</t>
@@ -1558,10 +1444,7 @@
     <t xml:space="preserve">QUAN_COMUN</t>
   </si>
   <si>
-    <t xml:space="preserve">57. Em Quantos
-Comunicantes o
-Resultado da Cultura
-Foi Positivo?</t>
+    <t xml:space="preserve">57. Em Quantos Comunicantes o Resultado da Cultura Foi Positivo?</t>
   </si>
   <si>
     <t xml:space="preserve">nu_comunicante_positivo</t>
@@ -1575,8 +1458,7 @@
     <t xml:space="preserve">QUAN_POSIT</t>
   </si>
   <si>
-    <t xml:space="preserve">58. Medidas de
-Prevenção/ Controle</t>
+    <t xml:space="preserve">58. Medidas de Prevenção/ Controle</t>
   </si>
   <si>
     <t xml:space="preserve">tp_medida_controle</t>
@@ -1645,8 +1527,7 @@
     <t xml:space="preserve">CLASSI_FIN</t>
   </si>
   <si>
-    <t xml:space="preserve">60. Critério de
-Confirmação/Descarte</t>
+    <t xml:space="preserve">60. Critério de Confirmação/Descarte</t>
   </si>
   <si>
     <t xml:space="preserve">tp_criterio_confirmacao</t>
@@ -1665,18 +1546,10 @@
     <t xml:space="preserve">CRITERIO</t>
   </si>
   <si>
-    <t xml:space="preserve">61.Doença Relacionada
-ao Trabalho</t>
+    <t xml:space="preserve">61.Doença Relacionada ao Trabalho</t>
   </si>
   <si>
     <t xml:space="preserve">st_doenca_trabalho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">varchar(1)
-st_doenca_tra
-balho
-TB_NOTIFIC
-ACAO</t>
   </si>
   <si>
     <t xml:space="preserve">Se a doença adquirida
@@ -1726,7 +1599,26 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">DOENCA_TRA</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">DOENCA_TRA
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">TB_NOTIFICACAO</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">62. Evolução</t>
@@ -1823,8 +1715,7 @@
     <t xml:space="preserve">DT_OBITO</t>
   </si>
   <si>
-    <t xml:space="preserve">64. Data do
-Encerramento</t>
+    <t xml:space="preserve">64. Data do Encerramento</t>
   </si>
   <si>
     <t xml:space="preserve">dt_encerramento</t>
@@ -1919,14 +1810,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="6.5"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="6.5"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -1940,6 +1823,12 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2103,7 +1992,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3185,87 +3074,87 @@
         <v>240</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>241</v>
+        <v>51</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>110</v>
       </c>
       <c r="E48" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="F48" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="F48" s="11" t="s">
+      <c r="G48" s="13" t="s">
         <v>243</v>
-      </c>
-      <c r="G48" s="13" t="s">
-        <v>244</v>
       </c>
       <c r="H48" s="9"/>
     </row>
     <row r="49" customFormat="false" ht="76.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B49" s="11" t="s">
         <v>245</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>246</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>51</v>
       </c>
       <c r="D49" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E49" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="F49" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="F49" s="10" t="s">
+      <c r="G49" s="13" t="s">
         <v>249</v>
-      </c>
-      <c r="G49" s="13" t="s">
-        <v>250</v>
       </c>
       <c r="H49" s="9"/>
     </row>
     <row r="50" customFormat="false" ht="76.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B50" s="11" t="s">
         <v>251</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>252</v>
       </c>
       <c r="C50" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="12"/>
       <c r="E50" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="F50" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="F50" s="10" t="s">
+      <c r="G50" s="13" t="s">
         <v>254</v>
-      </c>
-      <c r="G50" s="13" t="s">
-        <v>255</v>
       </c>
       <c r="H50" s="9"/>
     </row>
     <row r="51" customFormat="false" ht="76.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="15"/>
       <c r="E51" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F51" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="G51" s="8" t="s">
         <v>259</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>260</v>
       </c>
       <c r="H51" s="9"/>
     </row>
